--- a/CoreFramework/Files/PortfolioSuite.xlsx
+++ b/CoreFramework/Files/PortfolioSuite.xlsx
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +170,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -242,24 +249,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,7 +568,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -606,7 +619,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -640,292 +653,292 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -940,7 +953,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -984,7 +997,7 @@
       <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E3" t="s">

--- a/CoreFramework/Files/PortfolioSuite.xlsx
+++ b/CoreFramework/Files/PortfolioSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
